--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>FormName</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>AUTO_29OCT_TOOL_KAT_1540809325735</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540889810289</t>
   </si>
 </sst>
 </file>
@@ -538,7 +541,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>FormName</t>
   </si>
@@ -174,6 +174,42 @@
   </si>
   <si>
     <t>AUTO_30OCT_TOOL_KAT_1540889810289</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540891420271</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540891686239</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540891906051</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540892353385</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540892612327</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540892854267</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540893266411</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540893458319</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540893699787</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540893986430</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540894238982</t>
+  </si>
+  <si>
+    <t>AUTO_30OCT_TOOL_KAT_1540894475278</t>
   </si>
 </sst>
 </file>
@@ -541,7 +577,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>FormName</t>
   </si>
@@ -210,6 +210,36 @@
   </si>
   <si>
     <t>AUTO_30OCT_TOOL_KAT_1540894475278</t>
+  </si>
+  <si>
+    <t>AUTO_31OCT_TOOL_KAT_1540977026645</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_31/10/2018-14:53:31</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_31/10/2018-14:57:31</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_31/10/2018-15:01:21</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_31/10/2018-15:09:10</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_31/10/2018-15:13:45</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_31/10/2018-15:19:26</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_31/10/2018-15:25:36</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_31/10/2018-15:28:47</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_31/10/2018-15:32:37</t>
   </si>
 </sst>
 </file>
@@ -577,7 +607,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>FormName</t>
   </si>
@@ -240,6 +240,60 @@
   </si>
   <si>
     <t>AUTO_TOOL_KAT_31/10/2018-15:32:37</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-11:57:22</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:00:09</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:00:35</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:05:05</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:07:34</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:12:55</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:16:19</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:19:14</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:20:27</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:23:11</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:24:25</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:26:50</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:32:46</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:34:55</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:36:09</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:37:40</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:39:03</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_01/11/2018-12:40:42</t>
   </si>
 </sst>
 </file>
@@ -607,7 +661,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pashine_a\Katalon Studio\SafetyChain\SCTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9E5B75-C7E4-4915-9CEB-13607A577460}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1724257C-F393-4432-87B8-0509758E9E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{46E2E1DA-1FC9-488C-935C-41E78C701628}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,278 +30,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>FormName</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_1540556466641</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_1540564284224</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_1540564494602</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_1540564730363</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_1540789513614</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540789770277</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540790038659</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540792707579</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540792907903</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540793643378</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540793731454</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540794941802</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540795181630</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540795407815</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540796297808</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540797088846</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540797323670</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540797546890</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540797898229</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540798156606</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540798415236</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540798807966</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540799056503</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540800978537</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540801113785</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540801285289</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540801682703</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540801934991</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540802177096</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540802562892</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540802797720</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540803020971</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540803807203</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540804064173</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540804287278</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540804735680</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540804850703</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540805092576</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540805309313</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540806044828</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540807883386</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540808134550</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540808351591</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540808810744</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540809079628</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540809325735</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540889810289</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540891420271</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540891686239</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540891906051</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540892353385</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540892612327</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540892854267</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540893266411</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540893458319</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540893699787</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540893986430</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540894238982</t>
-  </si>
-  <si>
-    <t>AUTO_30OCT_TOOL_KAT_1540894475278</t>
-  </si>
-  <si>
-    <t>AUTO_31OCT_TOOL_KAT_1540977026645</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_31/10/2018-14:53:31</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_31/10/2018-14:57:31</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_31/10/2018-15:01:21</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_31/10/2018-15:09:10</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_31/10/2018-15:13:45</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_31/10/2018-15:19:26</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_31/10/2018-15:25:36</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_31/10/2018-15:28:47</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_31/10/2018-15:32:37</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-11:57:22</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:00:09</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:00:35</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:05:05</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:07:34</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:12:55</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:16:19</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:19:14</t>
   </si>
   <si>
     <t>AUTO_TOOL_KAT_01/11/2018-12:20:27</t>
   </si>
   <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:23:11</t>
+    <t>AUTO_TOOL_KAT_TASK01/11/2018-14:59:49</t>
   </si>
   <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:24:25</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:26:50</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:32:46</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:34:55</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:36:09</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:37:40</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:39:03</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:40:42</t>
+    <t>TaskName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,22 +393,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1424184-5EE2-4BB2-B5FB-6C33B2F49EA9}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>FormName</t>
   </si>
@@ -43,12 +43,16 @@
   <si>
     <t>TaskName</t>
   </si>
+  <si>
+    <t>AUTO_TOOL_KAT_TASK_01/11/2018-15:40:16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>FormName</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>AUTO_TOOL_KAT_TASK_01/11/2018-15:40:16</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_TASK_02/11/2018-10:47:56</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_TASK_02/11/2018-11:19:37</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_TASK_02/11/2018-11:24:17</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_TASK_02/11/2018-11:29:11</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_TASK_02/11/2018-11:31:25</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_TASK_02/11/2018-11:37:10</t>
   </si>
 </sst>
 </file>
@@ -418,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1724257C-F393-4432-87B8-0509758E9E15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BD340B-314C-4505-B23B-944CA6BB4078}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{46E2E1DA-1FC9-488C-935C-41E78C701628}"/>
   </bookViews>
@@ -30,39 +30,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FormName</t>
   </si>
   <si>
-    <t>AUTO_TOOL_KAT_01/11/2018-12:20:27</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_TASK01/11/2018-14:59:49</t>
-  </si>
-  <si>
     <t>TaskName</t>
   </si>
   <si>
-    <t>AUTO_TOOL_KAT_TASK_01/11/2018-15:40:16</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_TASK_02/11/2018-10:47:56</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_TASK_02/11/2018-11:19:37</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_TASK_02/11/2018-11:24:17</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_TASK_02/11/2018-11:29:11</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_TASK_02/11/2018-11:31:25</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_TASK_02/11/2018-11:37:10</t>
+    <t>AUTO_TOOL_KAT_TASK_13/11/2018-10:31:01</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_14/11/2018-13:07:31</t>
+  </si>
+  <si>
+    <t>DocumentName1</t>
+  </si>
+  <si>
+    <t>DocumentName2</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-12:25:36</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-12:25:36</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-12:32:43</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-12:32:43</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-12:41:41</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-12:41:41</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-13:54:53</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-13:54:53</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-14:06:42</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-14:06:42</t>
   </si>
 </sst>
 </file>
@@ -415,28 +430,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1424184-5EE2-4BB2-B5FB-6C33B2F49EA9}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>FormName</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-14:06:42</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-14:39:05</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-14:39:05</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-14:47:45</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-14:47:45</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-14:54:59</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-14:54:59</t>
   </si>
 </sst>
 </file>
@@ -460,10 +478,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BD340B-314C-4505-B23B-944CA6BB4078}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98718DFC-728D-4C69-B61B-657E3DBA93AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{46E2E1DA-1FC9-488C-935C-41E78C701628}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>FormName</t>
   </si>
@@ -41,61 +41,349 @@
     <t>AUTO_TOOL_KAT_TASK_13/11/2018-10:31:01</t>
   </si>
   <si>
-    <t>AUTO_TOOL_KAT_FORM_14/11/2018-13:07:31</t>
-  </si>
-  <si>
     <t>DocumentName1</t>
   </si>
   <si>
     <t>DocumentName2</t>
   </si>
   <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-12:25:36</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-12:25:36</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-12:32:43</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-12:32:43</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-12:41:41</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-12:41:41</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-13:54:53</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-13:54:53</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-14:06:42</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-14:06:42</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-14:39:05</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-14:39:05</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-14:47:45</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-14:47:45</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-14:54:59</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-14:54:59</t>
+    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-15:49:06</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-15:49:06</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_15/11/2018-17:20:55</t>
+  </si>
+  <si>
+    <t>TaskNameDMS</t>
+  </si>
+  <si>
+    <t>DocumentName3</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-10:57:07</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-10:57:07</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-10:57:07</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-10:58:15</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-10:58:15</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-10:58:15</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:02:01</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:02:01</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:02:01</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:08:51</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:08:51</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:08:51</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:26:53</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:26:53</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:26:53</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:44:39</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:44:39</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENTTASK16/11/2018-11:44:39</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:44:39</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:46:20</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:46:20</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENTTASK16/11/2018-11:46:20</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:46:20</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:50:19</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:50:19</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENTTASK16/11/2018-11:50:19</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:50:19</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:53:51</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:53:51</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENTTASK16/11/2018-11:53:51</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:53:51</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_16/11/2018-12:21:52</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-14:34:41</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_RESTORE_DOCUMENT16/11/2018-14:34:41</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENTTASK16/11/2018-14:34:41</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-14:34:41</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-14:51:48</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-14:56:49</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-14:58:09</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-15:09:07</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-15:12:14</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-15:18:15</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-15:20:14</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-15:24:56</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-16:06:21</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:01:16</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:03:37</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:04:58</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:07:28</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:09:38</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:11:27</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:14:47</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:18:10</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:22:13</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:58:46</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-18:02:02</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-18:02:51</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-18:06:36</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-18:14:03</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:23:01</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:24:50</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:28:14</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:29:49</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:35:16</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:37:39</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:49:08</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:53:51</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:55:18</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:58:28</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:01:46</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:05:55</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:13:14</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:16:15</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:22:04</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:34:51</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:36:30</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:38:20</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:40:42</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:42:13</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:45:36</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:47:06</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:52:19</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:02:40</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:05:29</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:07:26</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:17:57</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:19:02</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:20:29</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:28:02</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:36:01</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:39:42</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:42:43</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-13:24:31</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-13:26:04</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-13:30:46</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:26:49</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:29:14</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:42:41</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:45:48</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:47:08</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:49:06</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:50:57</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-15:00:27</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-15:02:32</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DOCUMENT_ON_19/11/2018-16:47:09</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_RESTORE_DOCUMENT_ON_19/11/2018-16:47:09</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_ASSIGN_TASK_DOCUMENT_ON_19/11/2018-16:47:09</t>
+  </si>
+  <si>
+    <t>AUTO_TOOL_KAT_DMS_TASK_ON_19/11/2018-16:47:09</t>
   </si>
 </sst>
 </file>
@@ -448,15 +736,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1424184-5EE2-4BB2-B5FB-6C33B2F49EA9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,24 +752,36 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98718DFC-728D-4C69-B61B-657E3DBA93AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA9EBCA-AF74-45FA-917B-01A5853C5D37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{46E2E1DA-1FC9-488C-935C-41E78C701628}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>FormName</t>
   </si>
@@ -47,333 +47,12 @@
     <t>DocumentName2</t>
   </si>
   <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_15/11/2018-15:49:06</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_15/11/2018-15:49:06</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_15/11/2018-17:20:55</t>
-  </si>
-  <si>
     <t>TaskNameDMS</t>
   </si>
   <si>
     <t>DocumentName3</t>
   </si>
   <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-10:57:07</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-10:57:07</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-10:57:07</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-10:58:15</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-10:58:15</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-10:58:15</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:02:01</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:02:01</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:02:01</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:08:51</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:08:51</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:08:51</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:26:53</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:26:53</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:26:53</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:44:39</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:44:39</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENTTASK16/11/2018-11:44:39</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:44:39</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:46:20</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:46:20</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENTTASK16/11/2018-11:46:20</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:46:20</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:50:19</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:50:19</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENTTASK16/11/2018-11:50:19</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:50:19</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-11:53:51</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT1_16/11/2018-11:53:51</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENTTASK16/11/2018-11:53:51</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-11:53:51</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_16/11/2018-12:21:52</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_16/11/2018-14:34:41</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_RESTORE_DOCUMENT16/11/2018-14:34:41</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DOCUMENTTASK16/11/2018-14:34:41</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DMS_TASK_16/11/2018-14:34:41</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-14:51:48</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-14:56:49</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-14:58:09</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-15:09:07</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-15:12:14</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-15:18:15</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-15:20:14</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-15:24:56</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-16:06:21</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:01:16</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:03:37</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:04:58</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:07:28</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:09:38</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:11:27</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:14:47</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:18:10</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:22:13</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-17:58:46</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-18:02:02</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-18:02:51</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-18:06:36</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_16/11/2018-18:14:03</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:23:01</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:24:50</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:28:14</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:29:49</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:35:16</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:37:39</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:49:08</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:53:51</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:55:18</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-10:58:28</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:01:46</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:05:55</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:13:14</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:16:15</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:22:04</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:34:51</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:36:30</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:38:20</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:40:42</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:42:13</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:45:36</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:47:06</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-11:52:19</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:02:40</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:05:29</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:07:26</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:17:57</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:19:02</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:20:29</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:28:02</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:36:01</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:39:42</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-12:42:43</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-13:24:31</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-13:26:04</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-13:30:46</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:26:49</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:29:14</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:42:41</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:45:48</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:47:08</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:49:06</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-14:50:57</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-15:00:27</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_FORM_ON_19/11/2018-15:02:32</t>
-  </si>
-  <si>
     <t>AUTO_TOOL_KAT_DOCUMENT_ON_19/11/2018-16:47:09</t>
   </si>
   <si>
@@ -384,6 +63,90 @@
   </si>
   <si>
     <t>AUTO_TOOL_KAT_DMS_TASK_ON_19/11/2018-16:47:09</t>
+  </si>
+  <si>
+    <t>LocationName</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_22/11/2018-16:08:38</t>
+  </si>
+  <si>
+    <t>SubLocationName</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-18:50:29</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:05:46</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:07:42</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:09:17</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:13:56</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:15:55</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:19:57</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:23:13</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:27:08</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:28:58</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:32:50</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:34:40</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_28/11/2018-19:37:24</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-15:34:28</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-15:36:31</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-15:38:31</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-15:53:29</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-17:09:04</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-17:11:02</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-17:59:56</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-18:56:24</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-19:04:59</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-19:07:33</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-19:11:42</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_29/11/2018-19:16:20</t>
   </si>
 </sst>
 </file>
@@ -736,15 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1424184-5EE2-4BB2-B5FB-6C33B2F49EA9}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,30 +521,36 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA9EBCA-AF74-45FA-917B-01A5853C5D37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E297B-6077-4E79-AB1E-743E73F60F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{46E2E1DA-1FC9-488C-935C-41E78C701628}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>FormName</t>
   </si>
@@ -53,100 +53,136 @@
     <t>DocumentName3</t>
   </si>
   <si>
-    <t>AUTO_TOOL_KAT_DOCUMENT_ON_19/11/2018-16:47:09</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_RESTORE_DOCUMENT_ON_19/11/2018-16:47:09</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_ASSIGN_TASK_DOCUMENT_ON_19/11/2018-16:47:09</t>
-  </si>
-  <si>
-    <t>AUTO_TOOL_KAT_DMS_TASK_ON_19/11/2018-16:47:09</t>
-  </si>
-  <si>
     <t>LocationName</t>
   </si>
   <si>
-    <t>AUTO_TEST_FORM_ON_22/11/2018-16:08:38</t>
-  </si>
-  <si>
     <t>SubLocationName</t>
   </si>
   <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-18:50:29</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:05:46</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:07:42</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:09:17</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:13:56</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:15:55</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:19:57</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:23:13</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:27:08</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:28:58</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:32:50</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:34:40</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_28/11/2018-19:37:24</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-15:34:28</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-15:36:31</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-15:38:31</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-15:53:29</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-17:09:04</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-17:11:02</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-17:59:56</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-18:56:24</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-19:04:59</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-19:07:33</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-19:11:42</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_29/11/2018-19:16:20</t>
+    <t>AUTO_TEST_FORM_ON_05/12/2018-16:29:35</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_DOCUMENT_ON_11/12/2018-16:06:36</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_RESTORE_DOCUMENT_ON_11/12/2018-16:06:36</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_ASSIGN_TASK_DOCUMENT_ON_11/12/2018-16:06:36</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_DMS_TASK_ON_11/12/2018-16:06:36</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_13/12/2018-18:11:13</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_13/12/2018-18:16:29</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_13/12/2018-18:21:00</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_13/12/2018-18:24:22</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_13/12/2018-18:26:50</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_13/12/2018-18:35:01</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_13/12/2018-18:39:13</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_13/12/2018-18:45:24</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_13/12/2018-18:48:39</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-11:12:07</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-11:16:12</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-14:27:49</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-14:31:41</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-15:03:22</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-15:17:08</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-15:18:32</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-15:41:13</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-15:42:39</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-15:44:15</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-15:46:43</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-15:50:27</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-15:53:54</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-17:38:09</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-17:40:42</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-17:43:12</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-17:46:28</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-17:56:22</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-17:58:16</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-17:59:39</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-18:00:59</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-18:03:08</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-18:09:40</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-18:12:35</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-18:24:11</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-18:29:45</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-18:35:30</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_14/12/2018-18:41:54</t>
   </si>
 </sst>
 </file>
@@ -502,7 +538,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,30 +563,30 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412E297B-6077-4E79-AB1E-743E73F60F8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914AE92-384D-4F64-81FD-574926265737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{46E2E1DA-1FC9-488C-935C-41E78C701628}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>FormName</t>
   </si>
@@ -38,9 +38,6 @@
     <t>TaskName</t>
   </si>
   <si>
-    <t>AUTO_TOOL_KAT_TASK_13/11/2018-10:31:01</t>
-  </si>
-  <si>
     <t>DocumentName1</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>SubLocationName</t>
   </si>
   <si>
-    <t>AUTO_TEST_FORM_ON_05/12/2018-16:29:35</t>
-  </si>
-  <si>
     <t>AUTO_TEST_DOCUMENT_ON_11/12/2018-16:06:36</t>
   </si>
   <si>
@@ -74,115 +68,67 @@
     <t>AUTO_TEST_DMS_TASK_ON_11/12/2018-16:06:36</t>
   </si>
   <si>
-    <t>AUTO_TEST_TASK_ON_13/12/2018-18:11:13</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_13/12/2018-18:16:29</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_13/12/2018-18:21:00</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_13/12/2018-18:24:22</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_13/12/2018-18:26:50</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_13/12/2018-18:35:01</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_13/12/2018-18:39:13</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_13/12/2018-18:45:24</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_13/12/2018-18:48:39</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-11:12:07</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-11:16:12</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-14:27:49</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-14:31:41</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-15:03:22</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-15:17:08</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-15:18:32</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-15:41:13</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-15:42:39</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-15:44:15</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-15:46:43</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-15:50:27</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-15:53:54</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-17:38:09</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-17:40:42</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-17:43:12</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-17:46:28</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-17:56:22</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-17:58:16</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-17:59:39</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-18:00:59</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-18:03:08</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-18:09:40</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-18:12:35</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-18:24:11</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-18:29:45</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-18:35:30</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_14/12/2018-18:41:54</t>
+    <t>AUTO_TEST_TASK_ON_17/12/2018-16:12:44</t>
+  </si>
+  <si>
+    <t>AUTO_29OCT_TOOL_KAT_1540809325735</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_17/12/2018-16:14:47</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_17/12/2018-16:19:21</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_17/12/2018-16:31:19</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_17/12/2018-16:37:17</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_17/12/2018-17:55:27</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_17/12/2018-18:01:40</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_17/12/2018-18:09:11</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_17/12/2018-18:15:36</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_17/12/2018-18:33:47</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_17/12/2018-18:40:04</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_17/12/2018-18:58:11</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_17/12/2018-19:04:24</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_18/12/2018-10:59:47</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_18/12/2018-11:04:53</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_18/12/2018-11:10:00</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_18/12/2018-11:18:44</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_18/12/2018-11:22:16</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_18/12/2018-11:25:48</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_18/12/2018-11:29:24</t>
   </si>
 </sst>
 </file>
@@ -538,7 +484,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,42 +497,42 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F914AE92-384D-4F64-81FD-574926265737}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FFD998-EFEA-436A-BDB9-D6D10FD7341B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{46E2E1DA-1FC9-488C-935C-41E78C701628}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>FormName</t>
   </si>
@@ -56,79 +56,100 @@
     <t>SubLocationName</t>
   </si>
   <si>
-    <t>AUTO_TEST_DOCUMENT_ON_11/12/2018-16:06:36</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_RESTORE_DOCUMENT_ON_11/12/2018-16:06:36</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_ASSIGN_TASK_DOCUMENT_ON_11/12/2018-16:06:36</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_DMS_TASK_ON_11/12/2018-16:06:36</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_17/12/2018-16:12:44</t>
-  </si>
-  <si>
-    <t>AUTO_29OCT_TOOL_KAT_1540809325735</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_17/12/2018-16:14:47</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_17/12/2018-16:19:21</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_17/12/2018-16:31:19</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_17/12/2018-16:37:17</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_17/12/2018-17:55:27</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_17/12/2018-18:01:40</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_17/12/2018-18:09:11</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_17/12/2018-18:15:36</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_17/12/2018-18:33:47</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_17/12/2018-18:40:04</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_17/12/2018-18:58:11</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_17/12/2018-19:04:24</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_18/12/2018-10:59:47</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_18/12/2018-11:04:53</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_18/12/2018-11:10:00</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_18/12/2018-11:18:44</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_18/12/2018-11:22:16</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_18/12/2018-11:25:48</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_18/12/2018-11:29:24</t>
+    <t>AUTO_TEST_DOCUMENT_ON_03/01/2019-14:11:31</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_RESTORE_DOCUMENT_ON_03/01/2019-14:11:31</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_ASSIGN_TASK_DOCUMENT_ON_03/01/2019-14:11:31</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_DMS_TASK_ON_03/01/2019-14:11:31</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_04/01/2019-08:59:33</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_04/01/2019-12:02:38</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-17:49:48</t>
+  </si>
+  <si>
+    <t>QuestionaireForm</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-17:59:56</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:00:38</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:01:08</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:07:50</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:08:36</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:09:06</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:14:05</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:14:47</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:15:17</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:17:45</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:18:26</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:18:56</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:25:20</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:26:02</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:26:32</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:32:07</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:35:14</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:39:16</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:40:29</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:40:59</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_04/01/2019-18:43:51</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:48:57</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:50:01</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_04/01/2019-18:50:31</t>
   </si>
 </sst>
 </file>
@@ -136,13 +157,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,8 +192,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,15 +509,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1424184-5EE2-4BB2-B5FB-6C33B2F49EA9}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,13 +546,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -533,9 +568,13 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="119">
   <si>
     <t>FormName</t>
   </si>
@@ -150,6 +150,243 @@
   </si>
   <si>
     <t>AUTO_TEST_TASK_ON_04/01/2019-18:50:31</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_07/01/2019-17:06:57</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_07/01/2019-17:15:45</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_07/01/2019-17:22:09</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_07/01/2019-17:34:16</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_07/01/2019-17:37:10</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_07/01/2019-18:00:11</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_07/01/2019-18:06:47</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_07/01/2019-18:16:22</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_07/01/2019-18:19:41</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-10:02:18</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-10:07:11</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-10:12:28</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-10:14:37</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-10:18:16</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-11:30:22</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-11:34:46</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-11:39:13</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-11:45:03</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-12:23:48</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-12:42:17</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-12:52:21</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-13:40:08</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-13:49:05</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-14:00:58</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-14:10:01</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-16:44:22</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_08/01/2019-17:06:48</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_09/01/2019-11:47:20</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_09/01/2019-12:01:22</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_09/01/2019-12:13:20</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_09/01/2019-12:15:15</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_09/01/2019-12:33:07</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_09/01/2019-14:06:44</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_09/01/2019-15:00:31</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_09/01/2019-16:23:30</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_09/01/2019-16:50:50</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_09/01/2019-16:54:10</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_09/01/2019-17:06:04</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_10/01/2019-16:30:36</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_10/01/2019-16:36:00</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_10/01/2019-16:41:17</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_10/01/2019-16:50:33</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_10/01/2019-16:54:10</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_10/01/2019-16:57:47</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_10/01/2019-17:01:45</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_10/01/2019-17:08:24</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_11/01/2019-10:19:22</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_TASK_ON_11/01/2019-10:35:48</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_11/01/2019-12:47:02</t>
+  </si>
+  <si>
+    <t>AUTO_TEST_FORM_ON_11/01/2019-14:09:06</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-15:11:05</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-15:16:40</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-15:22:17</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-15:32:09</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-15:41:15</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-15:51:35</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-15:55:58</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-16:00:42</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-16:04:49</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-16:11:13</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-16:18:58</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-16:23:44</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-16:23:52</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-16:28:46</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-16:34:20</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-16:39:38</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-16:50:01</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-16:53:49</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-17:07:05</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-17:11:27</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-17:15:59</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-17:25:27</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-17:28:41</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-17:43:21</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-17:47:21</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-18:00:03</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-18:01:05</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-18:01:31</t>
+  </si>
+  <si>
+    <t>TestForm_11/01/2019-18:02:02</t>
   </si>
 </sst>
 </file>
@@ -552,10 +789,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -569,8 +806,8 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
+      <c r="I2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FFD998-EFEA-436A-BDB9-D6D10FD7341B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F83054-9B69-45F2-96FC-13CBA7384D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{46E2E1DA-1FC9-488C-935C-41E78C701628}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>FormName</t>
   </si>
@@ -56,337 +56,148 @@
     <t>SubLocationName</t>
   </si>
   <si>
-    <t>AUTO_TEST_DOCUMENT_ON_03/01/2019-14:11:31</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_RESTORE_DOCUMENT_ON_03/01/2019-14:11:31</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_ASSIGN_TASK_DOCUMENT_ON_03/01/2019-14:11:31</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_DMS_TASK_ON_03/01/2019-14:11:31</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_04/01/2019-08:59:33</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_04/01/2019-12:02:38</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-17:49:48</t>
-  </si>
-  <si>
     <t>QuestionaireForm</t>
   </si>
   <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-17:59:56</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:00:38</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:01:08</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:07:50</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:08:36</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:09:06</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:14:05</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:14:47</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:15:17</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:17:45</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:18:26</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:18:56</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:25:20</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:26:02</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:26:32</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:32:07</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:35:14</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:39:16</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:40:29</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:40:59</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_04/01/2019-18:43:51</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:48:57</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:50:01</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_04/01/2019-18:50:31</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_07/01/2019-17:06:57</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_07/01/2019-17:15:45</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_07/01/2019-17:22:09</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_07/01/2019-17:34:16</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_07/01/2019-17:37:10</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_07/01/2019-18:00:11</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_07/01/2019-18:06:47</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_07/01/2019-18:16:22</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_07/01/2019-18:19:41</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-10:02:18</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-10:07:11</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-10:12:28</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-10:14:37</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-10:18:16</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-11:30:22</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-11:34:46</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-11:39:13</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-11:45:03</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-12:23:48</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-12:42:17</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-12:52:21</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-13:40:08</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-13:49:05</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-14:00:58</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-14:10:01</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-16:44:22</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_08/01/2019-17:06:48</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_09/01/2019-11:47:20</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_09/01/2019-12:01:22</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_09/01/2019-12:13:20</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_09/01/2019-12:15:15</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_09/01/2019-12:33:07</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_09/01/2019-14:06:44</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_09/01/2019-15:00:31</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_09/01/2019-16:23:30</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_09/01/2019-16:50:50</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_09/01/2019-16:54:10</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_09/01/2019-17:06:04</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_10/01/2019-16:30:36</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_10/01/2019-16:36:00</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_10/01/2019-16:41:17</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_10/01/2019-16:50:33</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_10/01/2019-16:54:10</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_10/01/2019-16:57:47</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_10/01/2019-17:01:45</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_10/01/2019-17:08:24</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_11/01/2019-10:19:22</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_TASK_ON_11/01/2019-10:35:48</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_11/01/2019-12:47:02</t>
-  </si>
-  <si>
-    <t>AUTO_TEST_FORM_ON_11/01/2019-14:09:06</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-15:11:05</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-15:16:40</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-15:22:17</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-15:32:09</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-15:41:15</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-15:51:35</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-15:55:58</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-16:00:42</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-16:04:49</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-16:11:13</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-16:18:58</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-16:23:44</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-16:23:52</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-16:28:46</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-16:34:20</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-16:39:38</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-16:50:01</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-16:53:49</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-17:07:05</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-17:11:27</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-17:15:59</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-17:25:27</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-17:28:41</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-17:43:21</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-17:47:21</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-18:00:03</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-18:01:05</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-18:01:31</t>
-  </si>
-  <si>
-    <t>TestForm_11/01/2019-18:02:02</t>
+    <t>TestDocument_22/01/2019-18:27:31</t>
+  </si>
+  <si>
+    <t>TestRSTDocument_22/01/2019-18:27:31</t>
+  </si>
+  <si>
+    <t>TestAssignTaskDocument22/01/2019-18:27:31</t>
+  </si>
+  <si>
+    <t>TestDMSTask_22/01/2019-18:27:31</t>
+  </si>
+  <si>
+    <t>TestTask_23/01/2019-14:53:10</t>
+  </si>
+  <si>
+    <t>TestForm_24/01/2019-13:11:51</t>
+  </si>
+  <si>
+    <t>TestForm_24/01/2019-14:42:37</t>
+  </si>
+  <si>
+    <t>TestForm_29/01/2019-15:15:20</t>
+  </si>
+  <si>
+    <t>TestForm_29/01/2019-18:11:36</t>
+  </si>
+  <si>
+    <t>TestForm_29/01/2019-18:22:07</t>
+  </si>
+  <si>
+    <t>TestForm_29/01/2019-18:27:16</t>
+  </si>
+  <si>
+    <t>TestForm_29/01/2019-18:32:11</t>
+  </si>
+  <si>
+    <t>TestForm_29/01/2019-18:42:10</t>
+  </si>
+  <si>
+    <t>TestForm_29/01/2019-18:45:34</t>
+  </si>
+  <si>
+    <t>TestForm_29/01/2019-18:48:49</t>
+  </si>
+  <si>
+    <t>TestForm_29/01/2019-18:52:04</t>
+  </si>
+  <si>
+    <t>TestForm_29/01/2019-18:57:42</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-09:43:25</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-12:05:10</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-12:17:24</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-12:20:47</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-12:23:58</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-12:27:23</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-13:28:59</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-13:34:02</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-13:37:38</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-13:54:34</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-13:58:09</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-14:01:23</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-15:41:38</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-15:46:34</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-15:50:47</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-15:56:47</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-16:37:14</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-16:51:32</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-17:38:33</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-17:46:33</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-17:51:30</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-18:03:47</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-18:07:11</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-18:10:27</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-18:13:41</t>
+  </si>
+  <si>
+    <t>TestForm_30/01/2019-18:32:34</t>
+  </si>
+  <si>
+    <t>TestForm_31/01/2019-10:35:16</t>
+  </si>
+  <si>
+    <t>TestForm_31/01/2019-17:16:34</t>
+  </si>
+  <si>
+    <t>TestForm_31/01/2019-17:54:56</t>
+  </si>
+  <si>
+    <t>TestForm_31/01/2019-18:26:06</t>
   </si>
 </sst>
 </file>
@@ -394,19 +205,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,9 +234,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,7 +553,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,30 +588,30 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Data\SafetyChain-Test-Automation-Katalon\SCTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F83054-9B69-45F2-96FC-13CBA7384D61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DDB238-1366-42F8-A460-788E4C62574D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{46E2E1DA-1FC9-488C-935C-41E78C701628}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>FormName</t>
   </si>
@@ -74,130 +74,19 @@
     <t>TestTask_23/01/2019-14:53:10</t>
   </si>
   <si>
-    <t>TestForm_24/01/2019-13:11:51</t>
-  </si>
-  <si>
-    <t>TestForm_24/01/2019-14:42:37</t>
-  </si>
-  <si>
-    <t>TestForm_29/01/2019-15:15:20</t>
-  </si>
-  <si>
-    <t>TestForm_29/01/2019-18:11:36</t>
-  </si>
-  <si>
-    <t>TestForm_29/01/2019-18:22:07</t>
-  </si>
-  <si>
-    <t>TestForm_29/01/2019-18:27:16</t>
-  </si>
-  <si>
-    <t>TestForm_29/01/2019-18:32:11</t>
-  </si>
-  <si>
-    <t>TestForm_29/01/2019-18:42:10</t>
-  </si>
-  <si>
-    <t>TestForm_29/01/2019-18:45:34</t>
-  </si>
-  <si>
-    <t>TestForm_29/01/2019-18:48:49</t>
-  </si>
-  <si>
-    <t>TestForm_29/01/2019-18:52:04</t>
-  </si>
-  <si>
-    <t>TestForm_29/01/2019-18:57:42</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-09:43:25</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-12:05:10</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-12:17:24</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-12:20:47</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-12:23:58</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-12:27:23</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-13:28:59</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-13:34:02</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-13:37:38</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-13:54:34</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-13:58:09</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-14:01:23</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-15:41:38</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-15:46:34</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-15:50:47</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-15:56:47</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-16:37:14</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-16:51:32</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-17:38:33</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-17:46:33</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-17:51:30</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-18:03:47</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-18:07:11</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-18:10:27</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-18:13:41</t>
-  </si>
-  <si>
-    <t>TestForm_30/01/2019-18:32:34</t>
-  </si>
-  <si>
-    <t>TestForm_31/01/2019-10:35:16</t>
-  </si>
-  <si>
-    <t>TestForm_31/01/2019-17:16:34</t>
-  </si>
-  <si>
-    <t>TestForm_31/01/2019-17:54:56</t>
-  </si>
-  <si>
-    <t>TestForm_31/01/2019-18:26:06</t>
+    <t>TestForm_05/02/2019-16:59:38</t>
+  </si>
+  <si>
+    <t>IEFilename</t>
+  </si>
+  <si>
+    <t>TestForm_11/02/2019-12:23:38</t>
+  </si>
+  <si>
+    <t>Data Extract-Test2-Form Compliance-2019-02-11-06-58-17.086.xlsx</t>
+  </si>
+  <si>
+    <t>Data Extract-Test2-Form Compliance-2019-02-11-09-04-10.958.xlsx</t>
   </si>
 </sst>
 </file>
@@ -550,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1424184-5EE2-4BB2-B5FB-6C33B2F49EA9}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +451,7 @@
     <col min="7" max="7" customWidth="true" width="31.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -590,10 +479,13 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -611,7 +503,10 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/SCTestData/data.xlsx
+++ b/SCTestData/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="131">
   <si>
     <t>FormName</t>
   </si>
@@ -87,6 +87,342 @@
   </si>
   <si>
     <t>Data Extract-Test2-Form Compliance-2019-02-11-09-04-10.958.xlsx</t>
+  </si>
+  <si>
+    <t>TestForm_18/02/2019-10:37:31</t>
+  </si>
+  <si>
+    <t>TestForm_18/02/2019-10:48:34</t>
+  </si>
+  <si>
+    <t>Data Extract-Test2-Form Compliance-2019-02-18-05-21-10.097.xlsx</t>
+  </si>
+  <si>
+    <t>TestForm_18/02/2019-11:07:49</t>
+  </si>
+  <si>
+    <t>Data Extract-Test2-Form Compliance-2019-02-18-05-40-19.408.xlsx</t>
+  </si>
+  <si>
+    <t>TestForm_18/02/2019-11:19:56</t>
+  </si>
+  <si>
+    <t>Data Extract-Test2-Form Compliance-2019-02-18-05-52-26.839.xlsx</t>
+  </si>
+  <si>
+    <t>TestForm_18/02/2019-11:38:15</t>
+  </si>
+  <si>
+    <t>Data Extract-Test2-Form Compliance-2019-02-18-06-10-45.507.xlsx</t>
+  </si>
+  <si>
+    <t>TestForm_18/02/2019-12:04:34</t>
+  </si>
+  <si>
+    <t>Data Extract-Test2-Form Compliance-2019-02-18-06-37-05.909.xlsx</t>
+  </si>
+  <si>
+    <t>TestForm_18/02/2019-12:19:22</t>
+  </si>
+  <si>
+    <t>Data Extract-Test2-Form Compliance-2019-02-18-06-51-52.543.xlsx</t>
+  </si>
+  <si>
+    <t>TestForm_18/02/2019-13:01:18</t>
+  </si>
+  <si>
+    <t>TestForm_18/02/2019-14:00:41</t>
+  </si>
+  <si>
+    <t>Data Extract-Test2-Form Compliance-2019-02-18-08-33-19.128.xlsx</t>
+  </si>
+  <si>
+    <t>TestForm_18/02/2019-14:24:33</t>
+  </si>
+  <si>
+    <t>Data Extract-Test2-Form Compliance-2019-02-18-08-57-10.210.xlsx</t>
+  </si>
+  <si>
+    <t>TestForm_19/02/2019-11:59:13</t>
+  </si>
+  <si>
+    <t>TestForm_19/02/2019-12:04:08</t>
+  </si>
+  <si>
+    <t>TestForm_19/02/2019-12:08:29</t>
+  </si>
+  <si>
+    <t>TestForm_19/02/2019-12:33:04</t>
+  </si>
+  <si>
+    <t>TestForm_19/02/2019-12:50:16</t>
+  </si>
+  <si>
+    <t>TestForm_19/02/2019-12:54:24</t>
+  </si>
+  <si>
+    <t>TestForm_19/02/2019-13:45:51</t>
+  </si>
+  <si>
+    <t>TestForm_20/02/2019-14:15:30</t>
+  </si>
+  <si>
+    <t>TestForm_20/02/2019-14:20:37</t>
+  </si>
+  <si>
+    <t>TestForm_20/02/2019-14:25:35</t>
+  </si>
+  <si>
+    <t>TestForm_20/02/2019-14:45:36</t>
+  </si>
+  <si>
+    <t>TestForm_20/02/2019-15:47:26</t>
+  </si>
+  <si>
+    <t>TestTask_20/02/2019-15:50:19</t>
+  </si>
+  <si>
+    <t>TestForm_20/02/2019-15:54:38</t>
+  </si>
+  <si>
+    <t>TestForm_20/02/2019-16:35:25</t>
+  </si>
+  <si>
+    <t>TestForm_20/02/2019-17:20:00</t>
+  </si>
+  <si>
+    <t>TestForm_20/02/2019-17:23:41</t>
+  </si>
+  <si>
+    <t>TestForm_20/02/2019-17:27:14</t>
+  </si>
+  <si>
+    <t>TestForm_20/02/2019-17:30:41</t>
+  </si>
+  <si>
+    <t>TestDocument_21/02/2019-10:53:00</t>
+  </si>
+  <si>
+    <t>TestRSTDocument_21/02/2019-10:53:00</t>
+  </si>
+  <si>
+    <t>TestAssignTaskDocument21/02/2019-10:53:00</t>
+  </si>
+  <si>
+    <t>TestDMSTask_21/02/2019-10:53:00</t>
+  </si>
+  <si>
+    <t>TestDocument_21/02/2019-12:48:04</t>
+  </si>
+  <si>
+    <t>TestRSTDocument_21/02/2019-12:48:04</t>
+  </si>
+  <si>
+    <t>TestAssignTaskDocument21/02/2019-12:48:04</t>
+  </si>
+  <si>
+    <t>TestDMSTask_21/02/2019-12:48:04</t>
+  </si>
+  <si>
+    <t>TestDocument_21/02/2019-14:20:20</t>
+  </si>
+  <si>
+    <t>TestRSTDocument_21/02/2019-14:20:20</t>
+  </si>
+  <si>
+    <t>TestAssignTaskDocument21/02/2019-14:20:20</t>
+  </si>
+  <si>
+    <t>TestDMSTask_21/02/2019-14:20:20</t>
+  </si>
+  <si>
+    <t>TestDocument_21/02/2019-14:29:30</t>
+  </si>
+  <si>
+    <t>TestRSTDocument_21/02/2019-14:29:30</t>
+  </si>
+  <si>
+    <t>TestAssignTaskDocument21/02/2019-14:29:30</t>
+  </si>
+  <si>
+    <t>TestDMSTask_21/02/2019-14:29:30</t>
+  </si>
+  <si>
+    <t>TestDocument_21/02/2019-15:14:43</t>
+  </si>
+  <si>
+    <t>TestRSTDocument_21/02/2019-15:14:43</t>
+  </si>
+  <si>
+    <t>TestAssignTaskDocument21/02/2019-15:14:43</t>
+  </si>
+  <si>
+    <t>TestDMSTask_21/02/2019-15:14:43</t>
+  </si>
+  <si>
+    <t>TestForm_25/02/2019-16:09:00</t>
+  </si>
+  <si>
+    <t>TestForm_25/02/2019-16:12:42</t>
+  </si>
+  <si>
+    <t>TestForm_25/02/2019-16:16:19</t>
+  </si>
+  <si>
+    <t>TestForm_25/02/2019-16:19:57</t>
+  </si>
+  <si>
+    <t>TestForm_25/02/2019-17:16:27</t>
+  </si>
+  <si>
+    <t>TestForm_25/02/2019-18:33:42</t>
+  </si>
+  <si>
+    <t>TestForm_25/02/2019-18:38:44</t>
+  </si>
+  <si>
+    <t>TestForm_26/02/2019-10:38:58</t>
+  </si>
+  <si>
+    <t>TestForm_26/02/2019-10:43:53</t>
+  </si>
+  <si>
+    <t>TestForm_26/02/2019-10:48:03</t>
+  </si>
+  <si>
+    <t>TestForm_26/02/2019-11:52:56</t>
+  </si>
+  <si>
+    <t>TestForm_28/02/2019-15:34:00</t>
+  </si>
+  <si>
+    <t>TestForm_28/02/2019-15:38:37</t>
+  </si>
+  <si>
+    <t>TestForm_28/02/2019-15:42:50</t>
+  </si>
+  <si>
+    <t>TestForm_28/02/2019-16:04:02</t>
+  </si>
+  <si>
+    <t>TestForm_28/02/2019-17:20:52</t>
+  </si>
+  <si>
+    <t>TestForm_28/02/2019-17:50:20</t>
+  </si>
+  <si>
+    <t>TestForm_28/02/2019-18:19:44</t>
+  </si>
+  <si>
+    <t>TestForm_01/03/2019-11:36:30</t>
+  </si>
+  <si>
+    <t>TestForm_01/03/2019-13:08:42</t>
+  </si>
+  <si>
+    <t>TestForm_01/03/2019-15:06:21</t>
+  </si>
+  <si>
+    <t>TestForm_01/03/2019-15:27:41</t>
+  </si>
+  <si>
+    <t>TestForm_01/03/2019-15:58:51</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-12:09:13</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-12:12:31</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-15:53:49</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-16:03:16</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-16:07:49</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-16:23:48</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-16:33:02</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-16:45:13</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-16:53:08</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-17:03:07</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-17:22:36</t>
+  </si>
+  <si>
+    <t>TestForm_04/03/2019-17:51:04</t>
+  </si>
+  <si>
+    <t>TestForm_05/03/2019-11:51:48</t>
+  </si>
+  <si>
+    <t>TestForm_05/03/2019-14:24:24</t>
+  </si>
+  <si>
+    <t>TestForm_05/03/2019-14:55:52</t>
+  </si>
+  <si>
+    <t>TestForm_06/03/2019-16:32:56</t>
+  </si>
+  <si>
+    <t>TestForm_06/03/2019-16:37:36</t>
+  </si>
+  <si>
+    <t>TestForm_06/03/2019-16:41:56</t>
+  </si>
+  <si>
+    <t>TestForm_06/03/2019-16:51:30</t>
+  </si>
+  <si>
+    <t>TestForm_07/03/2019-11:26:07</t>
+  </si>
+  <si>
+    <t>TestForm_07/03/2019-11:30:54</t>
+  </si>
+  <si>
+    <t>TestForm_07/03/2019-11:34:48</t>
+  </si>
+  <si>
+    <t>TestForm_07/03/2019-11:44:56</t>
+  </si>
+  <si>
+    <t>TestForm_07/03/2019-11:49:43</t>
+  </si>
+  <si>
+    <t>TestForm_07/03/2019-11:54:07</t>
+  </si>
+  <si>
+    <t>TestForm_08/03/2019-12:24:25</t>
+  </si>
+  <si>
+    <t>TestForm_08/03/2019-13:13:48</t>
+  </si>
+  <si>
+    <t>TestForm_08/03/2019-14:23:02</t>
+  </si>
+  <si>
+    <t>TestForm_08/03/2019-14:44:58</t>
+  </si>
+  <si>
+    <t>TestForm_13/03/2019-17:12:56</t>
+  </si>
+  <si>
+    <t>TestForm_13/03/2019-17:14:23</t>
+  </si>
+  <si>
+    <t>TestForm_13/03/2019-17:18:25</t>
   </si>
 </sst>
 </file>
@@ -485,28 +821,28 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
